--- a/example_output/csv_data/Validation_wind_added.xlsx
+++ b/example_output/csv_data/Validation_wind_added.xlsx
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>144405708.6532705</v>
+        <v>291328965.2223744</v>
       </c>
       <c r="C2">
-        <v>72737614.8402541</v>
+        <v>148779300.5490298</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60886379.74327167</v>
+        <v>118627655.583184</v>
       </c>
       <c r="C3">
-        <v>30516589.43032786</v>
+        <v>60042695.4728971</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -470,10 +470,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51309235.30566134</v>
+        <v>97466474.35908471</v>
       </c>
       <c r="C4">
-        <v>25439532.4591416</v>
+        <v>45843415.20540842</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72072584.37712102</v>
+        <v>113469186.6510352</v>
       </c>
       <c r="C5">
-        <v>38089478.24101605</v>
+        <v>53240208.27381698</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>74636431.05566655</v>
+        <v>141101576.4406697</v>
       </c>
       <c r="C6">
-        <v>32554361.95601565</v>
+        <v>64141703.75306258</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -512,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>79265024.90667093</v>
+        <v>136791840.6839094</v>
       </c>
       <c r="C7">
-        <v>34106712.82236198</v>
+        <v>58381319.42861847</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -526,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60672395.61703783</v>
+        <v>113616903.5703495</v>
       </c>
       <c r="C8">
-        <v>23994179.83946552</v>
+        <v>44886926.19054909</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -540,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64832790.4949353</v>
+        <v>137544088.0431332</v>
       </c>
       <c r="C9">
-        <v>29001022.68017564</v>
+        <v>61306501.96701577</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -554,10 +554,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77339577.97164541</v>
+        <v>177562095.9139242</v>
       </c>
       <c r="C10">
-        <v>37936747.60173161</v>
+        <v>88494087.23657796</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -568,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>96943174.017297</v>
+        <v>197072001.537502</v>
       </c>
       <c r="C11">
-        <v>49564018.13561322</v>
+        <v>102023241.1526247</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -582,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>84972225.16377334</v>
+        <v>188953745.9961062</v>
       </c>
       <c r="C12">
-        <v>44754596.38696288</v>
+        <v>101054180.1760379</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -596,10 +596,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>88782725.38718279</v>
+        <v>175539152.2052628</v>
       </c>
       <c r="C13">
-        <v>47925754.39323896</v>
+        <v>94463219.06450224</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -610,10 +610,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>82844185.59561782</v>
+        <v>165576041.1016922</v>
       </c>
       <c r="C14">
-        <v>43835523.57980002</v>
+        <v>89517557.83111714</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -648,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>147833423.795994</v>
+        <v>292770456.2796552</v>
       </c>
       <c r="C2">
-        <v>73709474.6677665</v>
+        <v>148646848.6585251</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -662,10 +662,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>61969852.94963184</v>
+        <v>119711220.5090676</v>
       </c>
       <c r="C3">
-        <v>31434943.57309252</v>
+        <v>59850968.41606086</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -676,10 +676,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51713777.47095118</v>
+        <v>96996904.66162857</v>
       </c>
       <c r="C4">
-        <v>26301486.84007744</v>
+        <v>45999415.14741379</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -690,10 +690,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72546547.34007744</v>
+        <v>113754361.1988907</v>
       </c>
       <c r="C5">
-        <v>38303755.02779488</v>
+        <v>53601793.66675562</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -704,10 +704,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>75022090.36691698</v>
+        <v>142453110.6810186</v>
       </c>
       <c r="C6">
-        <v>32965843.05365811</v>
+        <v>64408188.21939725</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -718,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>79685311.0980103</v>
+        <v>137444135.8373561</v>
       </c>
       <c r="C7">
-        <v>34075646.32071499</v>
+        <v>58394502.71098745</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -732,10 +732,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62408914.19338929</v>
+        <v>114653986.0097603</v>
       </c>
       <c r="C8">
-        <v>24042808.61692103</v>
+        <v>44594793.67013987</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -746,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>66156309.63942455</v>
+        <v>138634799.8081673</v>
       </c>
       <c r="C9">
-        <v>29942463.31391675</v>
+        <v>61526453.42408491</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -760,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77731920.47040223</v>
+        <v>177739222.8826441</v>
       </c>
       <c r="C10">
-        <v>38126591.16525027</v>
+        <v>88533447.58030739</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -774,10 +774,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>97624803.20472953</v>
+        <v>197737361.8143129</v>
       </c>
       <c r="C11">
-        <v>49845486.4231088</v>
+        <v>102201838.5866841</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -788,10 +788,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>85343869.07128645</v>
+        <v>189121636.6051421</v>
       </c>
       <c r="C12">
-        <v>45092550.90086653</v>
+        <v>100805922.1500152</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -802,10 +802,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>89733206.62911694</v>
+        <v>177031362.9710261</v>
       </c>
       <c r="C13">
-        <v>48273309.66243047</v>
+        <v>94705631.30082849</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -816,10 +816,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>83688427.46350676</v>
+        <v>167766502.971985</v>
       </c>
       <c r="C14">
-        <v>44114310.3991091</v>
+        <v>89651897.57167193</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>

--- a/example_output/csv_data/Validation_wind_added.xlsx
+++ b/example_output/csv_data/Validation_wind_added.xlsx
@@ -648,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>292770456.2796552</v>
+        <v>294714441.5634915</v>
       </c>
       <c r="C2">
-        <v>148646848.6585251</v>
+        <v>148607180.505959</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -662,10 +662,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>119711220.5090676</v>
+        <v>119773340.2477307</v>
       </c>
       <c r="C3">
-        <v>59850968.41606086</v>
+        <v>59828713.9764261</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -676,10 +676,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>96996904.66162857</v>
+        <v>97333301.33751126</v>
       </c>
       <c r="C4">
-        <v>45999415.14741379</v>
+        <v>45984910.43738856</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -690,10 +690,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>113754361.1988907</v>
+        <v>114174629.4046326</v>
       </c>
       <c r="C5">
-        <v>53601793.66675562</v>
+        <v>53574611.39772989</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -704,10 +704,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>142453110.6810186</v>
+        <v>142742068.5514288</v>
       </c>
       <c r="C6">
-        <v>64408188.21939725</v>
+        <v>64388111.45899402</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -718,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>137444135.8373561</v>
+        <v>138797161.9538306</v>
       </c>
       <c r="C7">
-        <v>58394502.71098745</v>
+        <v>58332255.54209531</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -732,10 +732,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>114653986.0097603</v>
+        <v>115297238.2501935</v>
       </c>
       <c r="C8">
-        <v>44594793.67013987</v>
+        <v>44508339.75771271</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -746,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>138634799.8081673</v>
+        <v>139481601.8581507</v>
       </c>
       <c r="C9">
-        <v>61526453.42408491</v>
+        <v>61463725.2981982</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -760,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>177739222.8826441</v>
+        <v>178787506.9410357</v>
       </c>
       <c r="C10">
-        <v>88533447.58030739</v>
+        <v>88516124.21678902</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -774,10 +774,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>197737361.8143129</v>
+        <v>198295855.3685375</v>
       </c>
       <c r="C11">
-        <v>102201838.5866841</v>
+        <v>102189588.0096093</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -788,10 +788,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>189121636.6051421</v>
+        <v>189240484.9584804</v>
       </c>
       <c r="C12">
-        <v>100805922.1500152</v>
+        <v>100792107.9889705</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -802,10 +802,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>177031362.9710261</v>
+        <v>176997595.0678757</v>
       </c>
       <c r="C13">
-        <v>94705631.30082849</v>
+        <v>94690949.00786746</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -816,10 +816,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>167766502.971985</v>
+        <v>167744663.6431007</v>
       </c>
       <c r="C14">
-        <v>89651897.57167193</v>
+        <v>89636205.40607382</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
